--- a/week 9/implicit evaluations study/data/processed/data_processed_codebook.xlsx
+++ b/week 9/implicit evaluations study/data/processed/data_processed_codebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annikalangner/Git/dpm-assignments/week 9/implicit evaluations study/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A75741-9B88-2145-A581-03E74E547EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC470A8-385B-9444-9B37-4C3239D9E071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36540" yWindow="1040" windowWidth="26520" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>A category from the self-report</t>
   </si>
   <si>
-    <t>Mean from the three self-report categories</t>
-  </si>
-  <si>
     <t>Summary of all exclutions  (demographics data, exclude_amp_performance, exclude_amp_completeness, exclude_duplicate_data and exclude_participant)</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Specification</t>
+  </si>
+  <si>
+    <t>Mean from the three self-reported categories</t>
   </si>
 </sst>
 </file>
@@ -470,13 +470,13 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="2" max="2" width="164.5" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,7 +488,7 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -566,10 +566,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -585,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -593,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -601,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
